--- a/Employee_Reports35/Ericson Murcillos Victorino Q0068.xlsx
+++ b/Employee_Reports35/Ericson Murcillos Victorino Q0068.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -667,11 +667,11 @@
         </is>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -741,11 +741,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">

--- a/Employee_Reports35/Ericson Murcillos Victorino Q0068.xlsx
+++ b/Employee_Reports35/Ericson Murcillos Victorino Q0068.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -667,11 +667,11 @@
         </is>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -741,11 +741,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
